--- a/DataBase/Sheets/DataFrame.xlsx
+++ b/DataBase/Sheets/DataFrame.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,6 +526,118 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>109</v>
+      </c>
+      <c r="C11">
+        <v>762129545</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>1660528172</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>111</v>
+      </c>
+      <c r="C13">
+        <v>762129545</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>112</v>
+      </c>
+      <c r="C14">
+        <v>5936453661</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>5936453661</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>114</v>
+      </c>
+      <c r="C16">
+        <v>1660528172</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>115</v>
+      </c>
+      <c r="C17">
+        <v>1660528172</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>116</v>
+      </c>
+      <c r="C18">
+        <v>762129545</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
